--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Professores" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,13 @@
     <t>Codigo da Disciplina</t>
   </si>
   <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>Nota 2</t>
+  </si>
+  <si>
     <t>Matricula do Aluno</t>
-  </si>
-  <si>
-    <t>Nota 1</t>
-  </si>
-  <si>
-    <t>Nota 2</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +467,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,16 +505,17 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,76 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Professores" sheetId="1" r:id="rId1"/>
-    <sheet name="Alunos" sheetId="2" r:id="rId2"/>
-    <sheet name="Disciplinas" sheetId="3" r:id="rId3"/>
-    <sheet name="Notas" sheetId="4" r:id="rId4"/>
+    <sheet name="Professores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Alunos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Disciplinas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Notas" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Matricula</t>
-  </si>
-  <si>
-    <t>Data de nascimento</t>
-  </si>
-  <si>
-    <t>Data de Nascimento</t>
-  </si>
-  <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Matricula do Professor</t>
-  </si>
-  <si>
-    <t>Codigo da Disciplina</t>
-  </si>
-  <si>
-    <t>Nota 1</t>
-  </si>
-  <si>
-    <t>Nota 2</t>
-  </si>
-  <si>
-    <t>Matricula do Aluno</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,33 +48,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -176,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -211,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,135 +424,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Matricula</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Data de nascimento</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Samira</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14/08/1994</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rapha</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12358</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14/06/1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Artur</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>04/07/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rapha</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12/02/2001</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Matricula</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Data de Nascimento</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tur</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>789456</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06/07/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Turan</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02/02/2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Samira</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>04/02/2002</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Codigo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Matricula do Professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Portugles</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ingles</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12358</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>75</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Matematica</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Codigo da Disciplina</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Matricula do Aluno</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nota 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nota 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>789456</v>
+      </c>
+      <c r="C2" t="n">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="n">
         <v>8</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>789456</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>75</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>75</v>
+      </c>
+      <c r="B5" t="n">
+        <v>150</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>